--- a/DIC/Lab2/Task5/N=8/task5_N8.xlsx
+++ b/DIC/Lab2/Task5/N=8/task5_N8.xlsx
@@ -572,79 +572,79 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5.392e-12</v>
+        <v>6.483e-12</v>
       </c>
       <c r="B2" t="n">
-        <v>5.474e-12</v>
+        <v>5.6e-12</v>
       </c>
       <c r="C2" t="n">
-        <v>5.433e-12</v>
+        <v>6.041e-12</v>
       </c>
       <c r="D2" t="n">
-        <v>4.447e-12</v>
+        <v>4.302e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>4.571e-12</v>
+        <v>4.039e-12</v>
       </c>
       <c r="F2" t="n">
-        <v>4.509e-12</v>
+        <v>4.171e-12</v>
       </c>
       <c r="G2" t="n">
-        <v>3.689e-12</v>
+        <v>3.95e-12</v>
       </c>
       <c r="H2" t="n">
-        <v>3.535e-12</v>
+        <v>3.739e-12</v>
       </c>
       <c r="I2" t="n">
-        <v>3.612e-12</v>
+        <v>3.845e-12</v>
       </c>
       <c r="J2" t="n">
-        <v>3.939e-12</v>
+        <v>3.932e-12</v>
       </c>
       <c r="K2" t="n">
-        <v>3.762e-12</v>
+        <v>3.736e-12</v>
       </c>
       <c r="L2" t="n">
-        <v>3.851e-12</v>
+        <v>3.834e-12</v>
       </c>
       <c r="M2" t="n">
-        <v>4.007e-12</v>
+        <v>3.931e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>3.785e-12</v>
+        <v>3.736e-12</v>
       </c>
       <c r="O2" t="n">
-        <v>3.896e-12</v>
+        <v>3.834e-12</v>
       </c>
       <c r="P2" t="n">
-        <v>3.976e-12</v>
+        <v>3.931e-12</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.751e-12</v>
+        <v>3.736e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>3.864e-12</v>
+        <v>3.834e-12</v>
       </c>
       <c r="S2" t="n">
-        <v>3.992e-12</v>
+        <v>3.934e-12</v>
       </c>
       <c r="T2" t="n">
-        <v>3.765e-12</v>
+        <v>3.74e-12</v>
       </c>
       <c r="U2" t="n">
-        <v>3.878e-12</v>
+        <v>3.837e-12</v>
       </c>
       <c r="V2" t="n">
-        <v>4.151e-12</v>
+        <v>4.033e-12</v>
       </c>
       <c r="W2" t="n">
-        <v>3.808e-12</v>
+        <v>3.791e-12</v>
       </c>
       <c r="X2" t="n">
-        <v>3.98e-12</v>
+        <v>3.912e-12</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.302e-11</v>
+        <v>3.331e-11</v>
       </c>
       <c r="Z2" t="n">
         <v>25</v>
